--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13404</v>
+        <v>12814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31125</v>
+        <v>30650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02936801635617969</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01934249542846896</v>
+        <v>0.01849028106028089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04491339098457967</v>
+        <v>0.04422881742563659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>25846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18263</v>
+        <v>17601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36729</v>
+        <v>37633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03754726745105356</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02653155748836299</v>
+        <v>0.02556965349262695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05335758090499162</v>
+        <v>0.05467084679519339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -786,19 +786,19 @@
         <v>46198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33712</v>
+        <v>34473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58475</v>
+        <v>61186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03344389600043832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02440499454840511</v>
+        <v>0.02495595298862352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04233211857160496</v>
+        <v>0.04429419125476285</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>672642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661869</v>
+        <v>662344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>679590</v>
+        <v>680180</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9706319836438203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9550866090154203</v>
+        <v>0.9557711825743643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806575045715311</v>
+        <v>0.9815097189397209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>669</v>
@@ -836,19 +836,19 @@
         <v>662505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651622</v>
+        <v>650718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>670088</v>
+        <v>670750</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9624527325489465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466424190950078</v>
+        <v>0.9453291532048064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9734684425116368</v>
+        <v>0.974430346507373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1330</v>
@@ -857,19 +857,19 @@
         <v>1335147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1322870</v>
+        <v>1320159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1347633</v>
+        <v>1346872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9665561039995617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9576678814283943</v>
+        <v>0.9557058087452371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9755950054515943</v>
+        <v>0.9750440470113765</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16957</v>
+        <v>17257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38168</v>
+        <v>36790</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02694171314705176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01763056588172256</v>
+        <v>0.01794225764486053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03968404923588806</v>
+        <v>0.03825146645158877</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>45285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33313</v>
+        <v>33172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62136</v>
+        <v>60924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04676311333361533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03440080628263781</v>
+        <v>0.03425472400099902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06416435005361552</v>
+        <v>0.06291213191944024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -1003,19 +1003,19 @@
         <v>71198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56170</v>
+        <v>56539</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87790</v>
+        <v>91624</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03688626569322006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02910051704008273</v>
+        <v>0.02929177435768538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04548246033739468</v>
+        <v>0.04746869228170525</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>935887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923632</v>
+        <v>925010</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>944843</v>
+        <v>944543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9730582868529483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9603159507641119</v>
+        <v>0.9617485335484112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823694341182775</v>
+        <v>0.9820577423551394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>867</v>
@@ -1053,19 +1053,19 @@
         <v>923108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906257</v>
+        <v>907469</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>935080</v>
+        <v>935221</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9532368866663846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9358356499463844</v>
+        <v>0.9370878680805597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9655991937173622</v>
+        <v>0.965745275999001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1738</v>
@@ -1074,19 +1074,19 @@
         <v>1858995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1842403</v>
+        <v>1838569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1874023</v>
+        <v>1873654</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9631137343067799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9545175396626053</v>
+        <v>0.9525313077182948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9708994829599172</v>
+        <v>0.9707082256423146</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10107</v>
+        <v>9994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26998</v>
+        <v>26661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02514239904561244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0148964516988015</v>
+        <v>0.01472952931434367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03978968614777052</v>
+        <v>0.03929364224392445</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1199,19 +1199,19 @@
         <v>41546</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31305</v>
+        <v>30040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55858</v>
+        <v>54729</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06075432053088472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04577840664924031</v>
+        <v>0.04392835361698346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08168330268793203</v>
+        <v>0.08003168825456784</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1220,19 +1220,19 @@
         <v>58606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46846</v>
+        <v>44745</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76766</v>
+        <v>75555</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0430180507956702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03438583410424576</v>
+        <v>0.0328438556609572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05634837938559233</v>
+        <v>0.05545913718341781</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>661450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>651511</v>
+        <v>651848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668402</v>
+        <v>668515</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9748576009543876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9602103138522294</v>
+        <v>0.960706357756076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9851035483011985</v>
+        <v>0.9852704706856565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>654</v>
@@ -1270,19 +1270,19 @@
         <v>642295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627983</v>
+        <v>629112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652536</v>
+        <v>653801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9392456794691153</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9183166973120679</v>
+        <v>0.9199683117454318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9542215933507595</v>
+        <v>0.9560716463830166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1278</v>
@@ -1291,19 +1291,19 @@
         <v>1303744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1285584</v>
+        <v>1286795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315504</v>
+        <v>1317605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9569819492043298</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943651620614407</v>
+        <v>0.9445408628165822</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9656141658957542</v>
+        <v>0.967156144339043</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>31969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22751</v>
+        <v>22971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44651</v>
+        <v>44769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03392904509826401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02414626754110331</v>
+        <v>0.02437914259426284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04738936945937623</v>
+        <v>0.04751397076880857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1416,19 +1416,19 @@
         <v>58855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44888</v>
+        <v>44439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77579</v>
+        <v>76255</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05666680783620241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04321964432440252</v>
+        <v>0.04278691657758821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07469472898573214</v>
+        <v>0.07341969258747927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1437,19 +1437,19 @@
         <v>90824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73001</v>
+        <v>73451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111900</v>
+        <v>111048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04585115069378252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03685352962662569</v>
+        <v>0.03708085733679736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05649114708145225</v>
+        <v>0.0560612742820621</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>910253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>897571</v>
+        <v>897453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>919471</v>
+        <v>919251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.966070954901736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9526106305406241</v>
+        <v>0.9524860292311915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9758537324588968</v>
+        <v>0.9756208574057372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -1487,19 +1487,19 @@
         <v>979757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>961033</v>
+        <v>962357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>993724</v>
+        <v>994173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9433331921637976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9253052710142677</v>
+        <v>0.9265803074125207</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9567803556755975</v>
+        <v>0.9572130834224116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1902</v>
@@ -1508,19 +1508,19 @@
         <v>1890010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1868934</v>
+        <v>1869786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1907833</v>
+        <v>1907383</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9541488493062175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9435088529185476</v>
+        <v>0.9439387257179378</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9631464703733743</v>
+        <v>0.9629191426632024</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>95292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0290922633861063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -1633,19 +1633,19 @@
         <v>171532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05076114029983908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -1654,19 +1654,19 @@
         <v>266824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04009548868701666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3180233</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3159557</v>
+        <v>3159583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3197632</v>
+        <v>3197542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9709077366138937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9645956196524064</v>
+        <v>0.9646036627397565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.976219672539021</v>
+        <v>0.9761922068903786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3133</v>
@@ -1704,19 +1704,19 @@
         <v>3207665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3178436</v>
+        <v>3179803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3231902</v>
+        <v>3230964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.949238859700161</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9405892438088574</v>
+        <v>0.9409937514635676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9564111331752407</v>
+        <v>0.9561335681707499</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6248</v>
@@ -1725,19 +1725,19 @@
         <v>6387898</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6353683</v>
+        <v>6353760</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6417025</v>
+        <v>6419672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9599045113129834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9547630770469275</v>
+        <v>0.9547747027330119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.964281394165911</v>
+        <v>0.964679156827273</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>12434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6579</v>
+        <v>6658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21055</v>
+        <v>20931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01774301741239115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009388308698104138</v>
+        <v>0.009501270937123024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03004624669932257</v>
+        <v>0.02986830031678791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2090,19 +2090,19 @@
         <v>37050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25644</v>
+        <v>26860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49335</v>
+        <v>51668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0535165113915029</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03704154761159784</v>
+        <v>0.0387968582635374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07126132107151993</v>
+        <v>0.0746304830671695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -2111,19 +2111,19 @@
         <v>49484</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36668</v>
+        <v>37338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65058</v>
+        <v>66394</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03552124419916824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02632127184776388</v>
+        <v>0.02680227188223318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0467007257754564</v>
+        <v>0.04765969321570437</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>688330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>679709</v>
+        <v>679833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>694185</v>
+        <v>694106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9822569825876089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9699537533006778</v>
+        <v>0.9701316996832121</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906116913018959</v>
+        <v>0.9904987290628773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>612</v>
@@ -2161,19 +2161,19 @@
         <v>655262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>642977</v>
+        <v>640644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666668</v>
+        <v>665452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9464834886084971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9287386789284801</v>
+        <v>0.92536951693283</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9629584523884022</v>
+        <v>0.9612031417364619</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1271</v>
@@ -2182,19 +2182,19 @@
         <v>1343591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1328017</v>
+        <v>1326681</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1356407</v>
+        <v>1355737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9644787558008318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9532992742245435</v>
+        <v>0.9523403067842956</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.973678728152236</v>
+        <v>0.9731977281177666</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>24239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15591</v>
+        <v>15571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36168</v>
+        <v>36066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02381137599777257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01531600090076968</v>
+        <v>0.01529666651738915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03553029431640372</v>
+        <v>0.03542986052995265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -2307,19 +2307,19 @@
         <v>65423</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50700</v>
+        <v>50545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83016</v>
+        <v>81896</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06365503905835945</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04932948578271828</v>
+        <v>0.04917887846320579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08077272298212008</v>
+        <v>0.0796827968479506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -2328,19 +2328,19 @@
         <v>89662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73189</v>
+        <v>72319</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110292</v>
+        <v>108903</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04382891796250592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03577640148633044</v>
+        <v>0.03535136764120615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05391337951588465</v>
+        <v>0.05323454451048978</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>993708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981779</v>
+        <v>981881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002356</v>
+        <v>1002376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9761886240022274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9644697056835964</v>
+        <v>0.9645701394700472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846839990992302</v>
+        <v>0.9847033334826109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>876</v>
@@ -2378,19 +2378,19 @@
         <v>962352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>944759</v>
+        <v>945879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>977075</v>
+        <v>977230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9363449609416405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9192272770178799</v>
+        <v>0.9203172031520492</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9506705142172818</v>
+        <v>0.9508211215367942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1790</v>
@@ -2399,19 +2399,19 @@
         <v>1956061</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1935431</v>
+        <v>1936820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1972534</v>
+        <v>1973404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9561710820374941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9460866204841154</v>
+        <v>0.9467654554895102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9642235985136696</v>
+        <v>0.9646486323587938</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>14047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7138</v>
+        <v>7195</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25200</v>
+        <v>25422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01856799839637023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009434763634269878</v>
+        <v>0.009509891547038466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03330990931654722</v>
+        <v>0.03360261651989196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2524,19 +2524,19 @@
         <v>36820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26585</v>
+        <v>26857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49948</v>
+        <v>51642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04743165019604933</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03424672022057708</v>
+        <v>0.03459636394100633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06434255694627576</v>
+        <v>0.06652504262613874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -2545,19 +2545,19 @@
         <v>50868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36296</v>
+        <v>37606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68489</v>
+        <v>66614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03318573292973829</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02367909584471541</v>
+        <v>0.02453368377343836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04468136450080154</v>
+        <v>0.04345830388654694</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>742491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>731338</v>
+        <v>731116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749400</v>
+        <v>749343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814320016036298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9666900906834528</v>
+        <v>0.9663973834801083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905652363657302</v>
+        <v>0.9904901084529616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>670</v>
@@ -2595,19 +2595,19 @@
         <v>739463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>726335</v>
+        <v>724641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>749698</v>
+        <v>749426</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9525683498039507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9356574430537241</v>
+        <v>0.9334749573738611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9657532797794228</v>
+        <v>0.9654036360589936</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1347</v>
@@ -2616,19 +2616,19 @@
         <v>1481953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1464332</v>
+        <v>1466207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1496525</v>
+        <v>1495215</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9668142670702617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9553186354991985</v>
+        <v>0.9565416961134531</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763209041552846</v>
+        <v>0.9754663162265617</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>20609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12481</v>
+        <v>12156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31649</v>
+        <v>33186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02183306340073828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01322189823380517</v>
+        <v>0.01287787807146571</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03352909855601842</v>
+        <v>0.03515682020391112</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2741,19 +2741,19 @@
         <v>67225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51654</v>
+        <v>52185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84963</v>
+        <v>85434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06409926345844844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04925241650188908</v>
+        <v>0.04975849446544198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08101291624297115</v>
+        <v>0.08146156015002261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -2762,19 +2762,19 @@
         <v>87834</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70443</v>
+        <v>70100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109909</v>
+        <v>109980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04407784592248915</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03535031706215525</v>
+        <v>0.03517828092427542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0551556941340666</v>
+        <v>0.05519142945713344</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>923330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912290</v>
+        <v>910753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931458</v>
+        <v>931783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9781669365992617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9664709014439816</v>
+        <v>0.9648431797960878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9867781017661948</v>
+        <v>0.987122121928534</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>937</v>
@@ -2812,19 +2812,19 @@
         <v>981538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>963800</v>
+        <v>963329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>997109</v>
+        <v>996578</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9359007365415516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9189870837570289</v>
+        <v>0.9185384398499774</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9507475834981107</v>
+        <v>0.9502415055345581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1826</v>
@@ -2833,19 +2833,19 @@
         <v>1904869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1882794</v>
+        <v>1882723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1922260</v>
+        <v>1922603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9559221540775108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448443058659338</v>
+        <v>0.9448085705428665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9646496829378448</v>
+        <v>0.9648217190757246</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>71329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02086134644048991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -2958,19 +2958,19 @@
         <v>206519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05825409110787749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -2979,19 +2979,19 @@
         <v>277847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03989583198776704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3347859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3329820</v>
+        <v>3328240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3364207</v>
+        <v>3363175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9791386535595101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9738629345038432</v>
+        <v>0.9734007766005135</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9839198061044262</v>
+        <v>0.9836181207692618</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3095</v>
@@ -3029,19 +3029,19 @@
         <v>3338615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3310120</v>
+        <v>3305755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3368674</v>
+        <v>3364976</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9417459088921225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9337079792047086</v>
+        <v>0.9324766864326349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9502247706458119</v>
+        <v>0.9491815036326807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6234</v>
@@ -3050,19 +3050,19 @@
         <v>6686475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6649697</v>
+        <v>6647950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6722441</v>
+        <v>6719502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.960104168012233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9548232845245288</v>
+        <v>0.9545724470939024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9652685250104761</v>
+        <v>0.9648465515175186</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>8756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4216</v>
+        <v>4128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16107</v>
+        <v>15429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01297521419556073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006248120278388811</v>
+        <v>0.006117470748986932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02386909756474695</v>
+        <v>0.02286421273386887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3415,19 +3415,19 @@
         <v>26710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17509</v>
+        <v>17400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39243</v>
+        <v>39045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03969689212369457</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02602323766145007</v>
+        <v>0.02586037081549166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05832391523109301</v>
+        <v>0.058030745228085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -3436,19 +3436,19 @@
         <v>35465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25625</v>
+        <v>25222</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50225</v>
+        <v>48999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0263166112829249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01901479415020137</v>
+        <v>0.01871605999194926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03726853805553593</v>
+        <v>0.03635927498869862</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>666044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>658693</v>
+        <v>659371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670584</v>
+        <v>670672</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9870247858044393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9761309024352529</v>
+        <v>0.977135787266131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9937518797216112</v>
+        <v>0.9938825292510129</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -3486,19 +3486,19 @@
         <v>646129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>633596</v>
+        <v>633794</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>655330</v>
+        <v>655439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9603031078763055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9416760847689069</v>
+        <v>0.9419692547719148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739767623385498</v>
+        <v>0.9741396291845082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1285</v>
@@ -3507,19 +3507,19 @@
         <v>1312174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1297414</v>
+        <v>1298640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1322014</v>
+        <v>1322417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.973683388717075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9627314619444641</v>
+        <v>0.9636407250113012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9809852058497986</v>
+        <v>0.9812839400080504</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>15135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8510</v>
+        <v>9414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24543</v>
+        <v>24526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01480322725582548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008323399837997179</v>
+        <v>0.009207282783032754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02400491214220692</v>
+        <v>0.02398795536074566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -3632,19 +3632,19 @@
         <v>40617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30184</v>
+        <v>28984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55283</v>
+        <v>55553</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03894603902649785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02894242916256646</v>
+        <v>0.02779168282771069</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05300852031636814</v>
+        <v>0.05326683951667357</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -3653,19 +3653,19 @@
         <v>55753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42802</v>
+        <v>42156</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72548</v>
+        <v>74294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02699434523703875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02072398615216433</v>
+        <v>0.02041126587859189</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03512654877807157</v>
+        <v>0.03597160216525614</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1007296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997888</v>
+        <v>997905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013921</v>
+        <v>1013017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9851967727441745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9759950878577931</v>
+        <v>0.9760120446392544</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9916766001620029</v>
+        <v>0.9907927172169673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>941</v>
@@ -3703,19 +3703,19 @@
         <v>1002296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>987630</v>
+        <v>987360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1012729</v>
+        <v>1013929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9610539609735022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9469914796836318</v>
+        <v>0.9467331604833265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9710575708374336</v>
+        <v>0.9722083171722893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1876</v>
@@ -3724,19 +3724,19 @@
         <v>2009591</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1992796</v>
+        <v>1991050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2022542</v>
+        <v>2023188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9730056547629613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9648734512219284</v>
+        <v>0.9640283978347439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9792760138478358</v>
+        <v>0.9795887341214081</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>13250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7105</v>
+        <v>7594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21632</v>
+        <v>22458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01744511468183679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009353932389995875</v>
+        <v>0.009997632747890488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02847972828689736</v>
+        <v>0.02956689397159131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3849,19 +3849,19 @@
         <v>29733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19679</v>
+        <v>19545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42716</v>
+        <v>41130</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03787629122071755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02506849500694627</v>
+        <v>0.02489723078128235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05441491232742271</v>
+        <v>0.05239437767580418</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3870,19 +3870,19 @@
         <v>42984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31440</v>
+        <v>31369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58781</v>
+        <v>56990</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02782908383072283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02035549035782223</v>
+        <v>0.02030946739752362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03805703443183948</v>
+        <v>0.03689731577022502</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>746302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737920</v>
+        <v>737094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752447</v>
+        <v>751958</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9825548853181633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.971520271713104</v>
+        <v>0.9704331060284087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9906460676100043</v>
+        <v>0.9900023672521095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>709</v>
@@ -3920,19 +3920,19 @@
         <v>755278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>742295</v>
+        <v>743881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>765332</v>
+        <v>765466</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9621237087792824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9455850876725773</v>
+        <v>0.9476056223241959</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9749315049930537</v>
+        <v>0.9751027692187176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1392</v>
@@ -3941,19 +3941,19 @@
         <v>1501579</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1485782</v>
+        <v>1487573</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1513123</v>
+        <v>1513194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9721709161692772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9619429655681606</v>
+        <v>0.9631026842297749</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9796445096421778</v>
+        <v>0.9796905326024763</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>8054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3747</v>
+        <v>3497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16640</v>
+        <v>15951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008590116127634859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003996771450791161</v>
+        <v>0.00373010295818048</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01774770854159288</v>
+        <v>0.01701345043221304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -4066,19 +4066,19 @@
         <v>37498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26513</v>
+        <v>25381</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51503</v>
+        <v>52704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03592483029961548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0254013222298335</v>
+        <v>0.0243162672521345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04934291146789976</v>
+        <v>0.05049347696104905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -4087,19 +4087,19 @@
         <v>45551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32938</v>
+        <v>33521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60920</v>
+        <v>60863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0229901254143568</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01662396435994814</v>
+        <v>0.01691844503217064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03074688918215308</v>
+        <v>0.03071797961891258</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>929513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920927</v>
+        <v>921616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933820</v>
+        <v>934070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9914098838723652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9822522914584072</v>
+        <v>0.9829865495677876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960032285492089</v>
+        <v>0.9962698970418196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>927</v>
@@ -4137,19 +4137,19 @@
         <v>1006281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>992276</v>
+        <v>991075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1017266</v>
+        <v>1018398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9640751697003845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9506570885321003</v>
+        <v>0.9495065230389509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9745986777701666</v>
+        <v>0.9756837327478655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1851</v>
@@ -4158,19 +4158,19 @@
         <v>1935795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1920426</v>
+        <v>1920483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1948408</v>
+        <v>1947825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9770098745856431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9692531108178468</v>
+        <v>0.9692820203810875</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9833760356400518</v>
+        <v>0.9830815549678293</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>45195</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01331484251999249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -4283,19 +4283,19 @@
         <v>134558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03796198106553473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>165</v>
@@ -4304,19 +4304,19 @@
         <v>179753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0259051542617142</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3349155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3333513</v>
+        <v>3334646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3361308</v>
+        <v>3361711</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9866851574800075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.982077040001853</v>
+        <v>0.9824108958211833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9902656802370504</v>
+        <v>0.9903843530264433</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3219</v>
@@ -4354,19 +4354,19 @@
         <v>3409984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3385387</v>
+        <v>3382016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3433256</v>
+        <v>3432248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9620380189344653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.955098616240876</v>
+        <v>0.9541476220999113</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9686035906737799</v>
+        <v>0.9683190824612974</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6404</v>
@@ -4375,19 +4375,19 @@
         <v>6759139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6730834</v>
+        <v>6731042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6785119</v>
+        <v>6786574</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9740948457382858</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9700156506779648</v>
+        <v>0.9700456869270824</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9778389056895757</v>
+        <v>0.978048613838544</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>16698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10535</v>
+        <v>10748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26635</v>
+        <v>26881</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02419226832056495</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01526312440150234</v>
+        <v>0.01557226437998251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03859009917156807</v>
+        <v>0.03894622589932271</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -4740,19 +4740,19 @@
         <v>47321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38388</v>
+        <v>37146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61780</v>
+        <v>59525</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06457720619309971</v>
+        <v>0.06457720619309973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05238704512582077</v>
+        <v>0.05069137884157941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08430894878399352</v>
+        <v>0.08123134560466003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -4761,19 +4761,19 @@
         <v>64019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51985</v>
+        <v>52087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80497</v>
+        <v>78567</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04498877312379863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0365318304018236</v>
+        <v>0.03660357729437737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05656865703214492</v>
+        <v>0.05521264499269043</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>673517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>663580</v>
+        <v>663334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>679680</v>
+        <v>679467</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.975807731679435</v>
+        <v>0.9758077316794351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9614099008284321</v>
+        <v>0.9610537741006784</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9847368755984981</v>
+        <v>0.984427735620018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1152</v>
@@ -4811,19 +4811,19 @@
         <v>685461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>671002</v>
+        <v>673257</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694394</v>
+        <v>695636</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9354227938069002</v>
+        <v>0.9354227938069005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9156910512160065</v>
+        <v>0.9187686543953399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.947612954874179</v>
+        <v>0.9493086211584206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1860</v>
@@ -4832,19 +4832,19 @@
         <v>1358978</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1342500</v>
+        <v>1344430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1371012</v>
+        <v>1370910</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9550112268762013</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.943431342967855</v>
+        <v>0.9447873550073096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9634681695981759</v>
+        <v>0.9633964227056224</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>17936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11186</v>
+        <v>11563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27188</v>
+        <v>28618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01709993557535565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01066389413090335</v>
+        <v>0.01102353175338012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02592026973602518</v>
+        <v>0.02728319540762896</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -4957,19 +4957,19 @@
         <v>51402</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41074</v>
+        <v>41241</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63287</v>
+        <v>62717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04800157612632886</v>
+        <v>0.04800157612632887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03835691706493689</v>
+        <v>0.03851297429635933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05910069417820611</v>
+        <v>0.05856805280575023</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -4978,19 +4978,19 @@
         <v>69338</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56555</v>
+        <v>57605</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84212</v>
+        <v>84407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0327105364260442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02668010135310607</v>
+        <v>0.02717516180860391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03972700403038439</v>
+        <v>0.03981931145433444</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1030981</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1021729</v>
+        <v>1020299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1037731</v>
+        <v>1037354</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9829000644246445</v>
+        <v>0.9829000644246444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9740797302639748</v>
+        <v>0.9727168045923704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9893361058690967</v>
+        <v>0.9889764682466201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1431</v>
@@ -5028,19 +5028,19 @@
         <v>1019436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007551</v>
+        <v>1008121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1029764</v>
+        <v>1029597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9519984238736712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9408993058217937</v>
+        <v>0.9414319471942497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9616430829350628</v>
+        <v>0.9614870257036405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2373</v>
@@ -5049,19 +5049,19 @@
         <v>2050417</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2035543</v>
+        <v>2035348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2063200</v>
+        <v>2062150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.967289463573956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9602729959696158</v>
+        <v>0.9601806885456656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733198986468939</v>
+        <v>0.9728248381913961</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>12569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7000</v>
+        <v>7121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21353</v>
+        <v>20758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01567050642121716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008727152031040731</v>
+        <v>0.008878144956108919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02662227667992285</v>
+        <v>0.02588049016344394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -5174,19 +5174,19 @@
         <v>32851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25022</v>
+        <v>24434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43464</v>
+        <v>42989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04051768089510496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03086071072395589</v>
+        <v>0.03013571766872411</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05360712054637085</v>
+        <v>0.0530205213073105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -5195,19 +5195,19 @@
         <v>45420</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34719</v>
+        <v>34033</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58098</v>
+        <v>57731</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02816114194617955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02152616135899059</v>
+        <v>0.02110080821443763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0360216704332512</v>
+        <v>0.03579379327145307</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>789517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>780733</v>
+        <v>781328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795086</v>
+        <v>794965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843294935787829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9733777233200768</v>
+        <v>0.974119509836556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912728479689592</v>
+        <v>0.9911218550438911</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>996</v>
@@ -5245,19 +5245,19 @@
         <v>777939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>767326</v>
+        <v>767801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>785768</v>
+        <v>786356</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9594823191048951</v>
+        <v>0.9594823191048949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9463928794536293</v>
+        <v>0.9469794786926895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9691392892760441</v>
+        <v>0.9698642823312759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1657</v>
@@ -5266,19 +5266,19 @@
         <v>1567455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1554777</v>
+        <v>1555144</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1578156</v>
+        <v>1578842</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9718388580538203</v>
+        <v>0.9718388580538205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9639783295667483</v>
+        <v>0.9642062067285467</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784738386410095</v>
+        <v>0.9788991917855622</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>18597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12173</v>
+        <v>12559</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28321</v>
+        <v>26788</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01879893777164424</v>
+        <v>0.01879893777164425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01230483700589294</v>
+        <v>0.01269535231461281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02862825016735028</v>
+        <v>0.02707935646621869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -5391,19 +5391,19 @@
         <v>72161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59552</v>
+        <v>60038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86406</v>
+        <v>86002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06460061585995715</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05331266106758888</v>
+        <v>0.05374780371542348</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07735301016643611</v>
+        <v>0.0769917187683581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -5412,19 +5412,19 @@
         <v>90758</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76393</v>
+        <v>76112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107840</v>
+        <v>108661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04308907009863171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03626898653587188</v>
+        <v>0.03613554873525986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05119915208305202</v>
+        <v>0.05158911022751184</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>970655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>960931</v>
+        <v>962464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>977079</v>
+        <v>976693</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9812010622283557</v>
+        <v>0.9812010622283558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.97137174983265</v>
+        <v>0.9729206435337814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9876951629941072</v>
+        <v>0.9873046476853871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1444</v>
@@ -5462,19 +5462,19 @@
         <v>1044870</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1030625</v>
+        <v>1031029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1057479</v>
+        <v>1056993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9353993841400429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9226469898335636</v>
+        <v>0.9230082812316421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.946687338932411</v>
+        <v>0.9462521962845766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2425</v>
@@ -5483,19 +5483,19 @@
         <v>2015525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1998443</v>
+        <v>1997622</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2029890</v>
+        <v>2030171</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9569109299013683</v>
+        <v>0.9569109299013682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9488008479169481</v>
+        <v>0.9484108897724884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9637310134641285</v>
+        <v>0.9638644512647402</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>65800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01863781850210536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>335</v>
@@ -5608,19 +5608,19 @@
         <v>203735</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05459958888203455</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -5629,19 +5629,19 @@
         <v>269535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3464669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3449588</v>
+        <v>3449360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3477994</v>
+        <v>3478662</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9813621814978946</v>
+        <v>0.9813621814978944</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9770905010143235</v>
+        <v>0.9770259244152276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851366549584991</v>
+        <v>0.9853258428240479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5023</v>
@@ -5679,19 +5679,19 @@
         <v>3527706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3506168</v>
+        <v>3503670</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3551126</v>
+        <v>3550406</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9454004111179656</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9396284928798608</v>
+        <v>0.9389590169103507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9516767120572885</v>
+        <v>0.9514839664868001</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8315</v>
@@ -5700,19 +5700,19 @@
         <v>6992375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6964631</v>
+        <v>6964943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7017980</v>
+        <v>7018270</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9628836795209542</v>
+        <v>0.9628836795209539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9590632682070186</v>
+        <v>0.9591062546773766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9664096416291222</v>
+        <v>0.9664495751253915</v>
       </c>
     </row>
     <row r="18">
